--- a/0-card-to-number.xlsx
+++ b/0-card-to-number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Matteo\Coding\Discord_Deck_Stack_Memorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9595D695-6051-43AE-B82B-FD8FF94FA210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5A53E3-254B-43FD-8500-7C478A27AAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E13D52AD-0902-41A3-8D40-D4DBE206FCBA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Numbers</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Aronson</t>
+  </si>
+  <si>
+    <t>Daortiz</t>
   </si>
 </sst>
 </file>
@@ -728,22 +731,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D2AC09-0C28-4C63-A62E-B438FEC1B86D}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,13 +763,16 @@
         <v>108</v>
       </c>
       <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -783,13 +789,16 @@
         <v>12</v>
       </c>
       <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
         <v>40</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -806,13 +815,16 @@
         <v>47</v>
       </c>
       <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
         <v>36</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -829,13 +841,16 @@
         <v>36</v>
       </c>
       <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -852,13 +867,16 @@
         <v>9</v>
       </c>
       <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>28</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -875,13 +893,16 @@
         <v>44</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -898,13 +919,16 @@
         <v>33</v>
       </c>
       <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -921,13 +945,16 @@
         <v>6</v>
       </c>
       <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -944,13 +971,16 @@
         <v>23</v>
       </c>
       <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -967,13 +997,16 @@
         <v>30</v>
       </c>
       <c r="F10">
+        <v>38</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -990,13 +1023,16 @@
         <v>3</v>
       </c>
       <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1013,13 +1049,16 @@
         <v>19</v>
       </c>
       <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>52</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1036,13 +1075,16 @@
         <v>28</v>
       </c>
       <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
         <v>48</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1059,13 +1101,16 @@
         <v>26</v>
       </c>
       <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
         <v>44</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1082,13 +1127,16 @@
         <v>4</v>
       </c>
       <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1105,13 +1153,16 @@
         <v>31</v>
       </c>
       <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1128,13 +1179,16 @@
         <v>24</v>
       </c>
       <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1151,13 +1205,16 @@
         <v>7</v>
       </c>
       <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1174,13 +1231,16 @@
         <v>34</v>
       </c>
       <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="G19">
         <v>50</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1197,13 +1257,16 @@
         <v>45</v>
       </c>
       <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
         <v>46</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1220,13 +1283,16 @@
         <v>10</v>
       </c>
       <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
         <v>42</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1243,13 +1309,16 @@
         <v>37</v>
       </c>
       <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
         <v>38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1266,13 +1335,16 @@
         <v>48</v>
       </c>
       <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>34</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1289,13 +1361,16 @@
         <v>13</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>30</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1312,13 +1387,16 @@
         <v>40</v>
       </c>
       <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="G25">
         <v>26</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1335,13 +1413,16 @@
         <v>51</v>
       </c>
       <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26">
         <v>22</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1358,13 +1439,16 @@
         <v>16</v>
       </c>
       <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27">
         <v>18</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1381,13 +1465,16 @@
         <v>20</v>
       </c>
       <c r="F28">
+        <v>31</v>
+      </c>
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1404,13 +1491,16 @@
         <v>43</v>
       </c>
       <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
         <v>23</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1427,13 +1517,16 @@
         <v>32</v>
       </c>
       <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
         <v>19</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1450,13 +1543,16 @@
         <v>5</v>
       </c>
       <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
         <v>15</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1473,13 +1569,16 @@
         <v>22</v>
       </c>
       <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1496,13 +1595,16 @@
         <v>29</v>
       </c>
       <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1519,13 +1621,16 @@
         <v>2</v>
       </c>
       <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1542,13 +1647,16 @@
         <v>18</v>
       </c>
       <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
         <v>51</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1565,13 +1673,16 @@
         <v>27</v>
       </c>
       <c r="F36">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G36">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1588,13 +1699,16 @@
         <v>42</v>
       </c>
       <c r="F37">
+        <v>47</v>
+      </c>
+      <c r="G37">
         <v>43</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1611,13 +1725,16 @@
         <v>15</v>
       </c>
       <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
         <v>39</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1634,13 +1751,16 @@
         <v>50</v>
       </c>
       <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39">
         <v>35</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1657,13 +1777,16 @@
         <v>39</v>
       </c>
       <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40">
         <v>31</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1683,10 +1806,13 @@
         <v>1</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1703,13 +1829,16 @@
         <v>35</v>
       </c>
       <c r="F42">
+        <v>19</v>
+      </c>
+      <c r="G42">
         <v>49</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1726,13 +1855,16 @@
         <v>46</v>
       </c>
       <c r="F43">
+        <v>32</v>
+      </c>
+      <c r="G43">
         <v>45</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1752,10 +1884,13 @@
         <v>41</v>
       </c>
       <c r="G44">
+        <v>41</v>
+      </c>
+      <c r="H44">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1775,10 +1910,13 @@
         <v>37</v>
       </c>
       <c r="G45">
+        <v>37</v>
+      </c>
+      <c r="H45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1798,10 +1936,13 @@
         <v>33</v>
       </c>
       <c r="G46">
+        <v>33</v>
+      </c>
+      <c r="H46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1821,10 +1962,13 @@
         <v>29</v>
       </c>
       <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1844,10 +1988,13 @@
         <v>25</v>
       </c>
       <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1867,10 +2014,13 @@
         <v>21</v>
       </c>
       <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1890,10 +2040,13 @@
         <v>17</v>
       </c>
       <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1910,13 +2063,16 @@
         <v>1</v>
       </c>
       <c r="F51">
+        <v>52</v>
+      </c>
+      <c r="G51">
         <v>13</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1936,10 +2092,13 @@
         <v>9</v>
       </c>
       <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1959,10 +2118,13 @@
         <v>5</v>
       </c>
       <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
